--- a/biology/Botanique/Triomphe_de_Caen/Triomphe_de_Caen.xlsx
+++ b/biology/Botanique/Triomphe_de_Caen/Triomphe_de_Caen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Triomphe de Caen' est un cultivar de rosier hybride remontant obtenu en 1861 par le rosiériste normand Pierre Oger[1]. Cette variété célèbre la ville de Caen en Normandie.
+'Triomphe de Caen' est un cultivar de rosier hybride remontant obtenu en 1861 par le rosiériste normand Pierre Oger. Cette variété célèbre la ville de Caen en Normandie.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété présente un buisson vigoureux au feuillage caduc de 120 cm de hauteur, ou de 200 cm à 400 cm s'il est palissé. Ses roses en forme de coupe, de couleur grenat nuancée d'écarlate, sont grandes et parfumées[2] s'ouvrant sur un œil vert. Sa floraison est faiblement remontante[3].
-'Triomphe de Caen' est parfait pour former des haies ou pour être palissé sur un mur protégé du vent. On peut l'admirer à la roseraie des roses de Normandie[4], ainsi qu'à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété présente un buisson vigoureux au feuillage caduc de 120 cm de hauteur, ou de 200 cm à 400 cm s'il est palissé. Ses roses en forme de coupe, de couleur grenat nuancée d'écarlate, sont grandes et parfumées s'ouvrant sur un œil vert. Sa floraison est faiblement remontante.
+'Triomphe de Caen' est parfait pour former des haies ou pour être palissé sur un mur protégé du vent. On peut l'admirer à la roseraie des roses de Normandie, ainsi qu'à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
         </is>
       </c>
